--- a/bpmn-tree-output.xlsx
+++ b/bpmn-tree-output.xlsx
@@ -11028,7 +11028,7 @@
         <v>Generated</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-11-27T21:58:03.634Z</v>
+        <v>2025-12-01T08:19:17.198Z</v>
       </c>
     </row>
     <row r="8">
